--- a/Data/Comparison with other Literature.xlsx
+++ b/Data/Comparison with other Literature.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Comparison with other studies</t>
   </si>
@@ -238,12 +238,65 @@
       <t>/d (1 mg/cm² = 10 g/m²)</t>
     </r>
   </si>
+  <si>
+    <t>Wolanski et al 2005</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <r>
+      <t>Total: 
+2000 mg cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>5.5 cm-2 yr-1</t>
+  </si>
+  <si>
+    <t>14-270 (Figure 4)</t>
+  </si>
+  <si>
+    <t>0-12.4 (Figure 4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +314,14 @@
     </font>
     <font>
       <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,7 +746,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +828,9 @@
       <c r="J3" s="16">
         <v>15.5</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -808,13 +871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +964,9 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1115,6 +1180,22 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
